--- a/맥스무비.xlsx
+++ b/맥스무비.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA_Lecture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Park\Documents\UiPath\RPA_수업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C93C97-D40C-42D5-906C-58135329C827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="10095" xr2:uid="{5A12B02B-4566-4307-8416-58C5491810B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14556" windowHeight="10092"/>
   </bookViews>
   <sheets>
-    <sheet name="20240524" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="20240526" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>기사 제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,23 +39,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[리뷰: 포테이토 지수 84%] '설계자', 진실 가리는 정교함 아쉽지만 '시간 순삭'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/438015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1시간 전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[인터뷰] 류준열, 그동안 참았던 이야기를 숨김없이 풀어낸 1시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/438007</t>
+    <t>윤여정, '결혼피로연' 美 리메이크작 출연..'브리저튼' 앤드류 안 감독과 호흡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/438030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시간 전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구속' 김호중, 향후 경찰 수사는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/438032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6시간 전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[위클리 이슈 모음 zip] 변우석의 주제 파악, 천우희 팬 결혼식 축사, 황보라 난임 끝 득남 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/438022</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -64,139 +75,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강동원, 영화 '설계자'로 41개국 관객과 만난다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/438012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3시간 전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000만..1000만...' 그 사이 '중박' 영화가 사라졌다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/438008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19시간 전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유지태 "영상 콘텐츠 창작자 정당한 보상" 세계 연대 호소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/438018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22분 전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[데일리 핫이슈] 박보람 급성알코올중독 추정·임영웅 200억 넘게 벌었다·'선재 업고 튀어' 암표 극성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/438004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6시간 전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김호중의 무리수, 결국 24일 공연 불발...위약금 등 분쟁 일어나나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/438009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토르 지워냈다…'퓨리오사' 크리스 헴스워스의 빌런 도전, 성공적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/438006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20시간 전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[오늘 뭘 볼까] 독일 역사 속 충격 실화, 영화 '스텔라'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/438005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선재' 변우석 이전에 000 있었다…스타 탄생의 순간들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/438003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05월 23일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FDA' 장이수, 이번엔 진짜 경찰...박지환 '핸섬가이즈' 출격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/438002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변우석이 밝힌 #선재 #심장 #김혜윤 #할머니 #눈물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/437998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퓨리오사: 매드맥스 사가' 흥행 질주 시작! 개봉일 흥행 1위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/437997</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[칸 리뷰:포테이토 지수 83%] '영화 청년, 동호' 공무원은 어떻게 '영화인'이 됐나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/437956</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[데일리 핫이슈] '음주 뺑소니' 김호중 구속 기로·'트럼프 영화'에 뿔난 트럼프 외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/437981</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스위프트노믹스' MCU 살리나...테일러 스위프트 마블 시리즈 주연 물망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/437996</t>
+    <t>[칸 리포트] 쥐디트 고드레슈가 쏘아 올린 '미투'..여성의 목소리 주목한 칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437978</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05월 24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥스무비 기사 콘텐츠 게재 부산영상위 SNS 카드뉴스 발행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/438020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산국제영화제, 국제영화제작자연맹 영화제위원회 3연속 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437993</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -204,50 +107,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그녀가 죽었다' 호루기로 눈도장 박예니, 하버드대 출신의 신 스틸러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/437995</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[오늘 뭘 볼까] 대만과 일본을 오간 첫사랑, 영화 '청춘 18X2 너에게로 이어지는 길'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/437994</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이재킹' 재난물 강한 하정우·첫 악역 도전 여진구의 만남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/437990</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산국제영화제, 국제영화제작자연맹 영화제위원회 3연속 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/437993</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경찰, '음주 뺑소니' 혐의 김호중 구속영장 신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maxmovie.com/news/437992</t>
+    <t>[칸 화보] 임윤아·한소희, 세계적 스타들과 나란히 뽐낸 자태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청춘의 방황과 사랑, 뮤지컬 '베어 더 뮤지컬' 6번째 시즌 개막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01월 01일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 만난 '솔선커플'에 해피엔딩 기대…최종회 다같이 본다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베테랑2' 칸 레드카펫 생생한 현장 포착!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05월 21일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선업튀' 이철우 "버닝썬 대화방 멤버 아니다" 부인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437966</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"힘들어서 여기까지"…윤민수 결혼생활 마침표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437958</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마동석 '범죄도시4', 20일 '3편' 제친다…불과 2만명 차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437942</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05월 20일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실력파 인디밴드 블루파프리카+엔분의일, 공동 공연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437943</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트롯 야생마' 신승태, 올해 첫 단독 콘서트 화려한 마무리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437941</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가수 JD1, 23일 신곡에 앞서 미리듣기 영상 공개 화제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강소라, 6월20일 춘천영화제 개막식 '원 톱' 사회자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437938</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배우 고 장진영 부친 장길남 계암장학회 이사장 별세..15년간 장학금 기부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05월 17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"예정화, 가난한 시절부터 함께했다" 마동석의 아내 사랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[데일리 핫이슈] 고윤정 드라마 연내 못 본다·채널A 보도에 유감 전한 김호중 측·곽민선 축포 맞고 시력 손상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maxmovie.com/news/437898</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,14 +598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287FE37A-1B3D-4F1D-9105-E50C48C1E774}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -636,8 +627,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -647,8 +638,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -658,8 +649,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
@@ -669,7 +660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -677,98 +668,98 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -776,10 +767,10 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -787,73 +778,73 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -863,12 +854,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4448C7A-2AD1-491E-877C-3E4AEA9D8D54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
